--- a/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/26-Jul-2019/middleTests.xlsx
+++ b/Polaris/PlusMatlabUtils-master/MatlabOpenIGTLinkInterface/data/26-Jul-2019/middleTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Esteban\Google Drive\ROBOTICS (MSc)\Dissertation\DissertationSoftware\Software\Polaris\PlusMatlabUtils-master\MatlabOpenIGTLinkInterface\data\26-Jul-2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1CEEEC-015A-4D6B-9747-27E0C721D80C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E9CF1D-1D7A-4D50-9582-3A1619260A82}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{3C0A4729-8F6B-45E5-AFE2-0D189FF07D10}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
   <si>
     <t>folder</t>
   </si>
@@ -108,6 +108,30 @@
   </si>
   <si>
     <t>e</t>
+  </si>
+  <si>
+    <t>indep</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>[1 2 2]</t>
+  </si>
+  <si>
+    <t>[2 3 3]</t>
+  </si>
+  <si>
+    <t>[3 5 5]</t>
+  </si>
+  <si>
+    <t>[5 7 7]</t>
+  </si>
+  <si>
+    <t>[5 10 10]</t>
   </si>
 </sst>
 </file>
@@ -213,12 +237,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17443,15 +17468,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC69114-1B9E-44FF-9376-6D0CBE5F1E37}">
-  <dimension ref="B1:H6"/>
+  <dimension ref="B1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -17470,8 +17495,17 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -17499,8 +17533,17 @@
         <f>AVERAGE(middle__2[err_time_series_test_t])</f>
         <v>5.559432000000001</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -17528,8 +17571,17 @@
         <f>AVERAGE(middle__4[err_time_series_test_t])</f>
         <v>3.5810944</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -17557,8 +17609,17 @@
         <f>AVERAGE(middle__5[err_time_series_test_t])</f>
         <v>3.1946471999999999</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -17586,8 +17647,17 @@
         <f>AVERAGE(middle__6[err_time_series_test_t])</f>
         <v>4.5574520000000005</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -17614,6 +17684,41 @@
       <c r="H6" s="2">
         <f>AVERAGE(middle__7[err_time_series_test_t])</f>
         <v>7.9615311999999978</v>
+      </c>
+      <c r="J6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>MIN(C2:C6)</f>
+        <v>14.523867999999986</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:H7" si="0">MIN(D2:D6)</f>
+        <v>14.486112000000004</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.0203879999999974</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>18.283629600000001</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>18.136592799999999</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>3.1946471999999999</v>
       </c>
     </row>
   </sheetData>
